--- a/Output.data/Station details.xlsx
+++ b/Output.data/Station details.xlsx
@@ -390,7 +390,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Metro</t>
+          <t>Area.type</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -430,7 +430,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -470,7 +470,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -510,7 +510,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -590,7 +590,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -830,7 +830,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2070,7 +2070,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2150,7 +2150,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2350,7 +2350,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2510,7 +2510,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2590,7 +2590,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2630,7 +2630,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2870,7 +2870,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3630,7 +3630,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3830,7 +3830,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3870,7 +3870,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3990,7 +3990,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4110,7 +4110,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4150,7 +4150,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4430,7 +4430,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4470,7 +4470,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4550,7 +4550,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4590,7 +4590,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4670,7 +4670,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4710,7 +4710,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5230,7 +5230,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5310,7 +5310,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5430,7 +5430,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5550,7 +5550,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5670,7 +5670,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5750,7 +5750,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5830,7 +5830,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5870,7 +5870,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -6030,7 +6030,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -6070,7 +6070,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -6110,7 +6110,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6310,7 +6310,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6350,7 +6350,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6390,7 +6390,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6630,7 +6630,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6790,7 +6790,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6830,7 +6830,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6870,7 +6870,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6950,7 +6950,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6990,7 +6990,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -7030,7 +7030,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -7070,7 +7070,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -7270,7 +7270,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7350,7 +7350,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7430,7 +7430,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7470,7 +7470,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7510,7 +7510,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7630,7 +7630,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7790,7 +7790,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7830,7 +7830,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7870,7 +7870,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -8030,7 +8030,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -8070,7 +8070,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -8110,7 +8110,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -8190,7 +8190,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -8230,7 +8230,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -8270,7 +8270,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -8310,7 +8310,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8390,7 +8390,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8470,7 +8470,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8550,7 +8550,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8630,7 +8630,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8670,7 +8670,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8710,7 +8710,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8790,7 +8790,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8830,7 +8830,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -9070,7 +9070,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -9110,7 +9110,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -9150,7 +9150,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -9310,7 +9310,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -9350,7 +9350,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9390,7 +9390,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9430,7 +9430,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9470,7 +9470,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9550,7 +9550,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9590,7 +9590,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9630,7 +9630,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9790,7 +9790,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9870,7 +9870,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9910,7 +9910,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9950,7 +9950,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -9990,7 +9990,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -10030,7 +10030,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -10070,7 +10070,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -10150,7 +10150,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -10230,7 +10230,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -10310,7 +10310,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -10350,7 +10350,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -10430,7 +10430,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10470,7 +10470,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10510,7 +10510,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10590,7 +10590,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10630,7 +10630,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -10750,7 +10750,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -10790,7 +10790,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -10870,7 +10870,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -11110,7 +11110,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -11150,7 +11150,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -11190,7 +11190,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -11230,7 +11230,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -11310,7 +11310,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -11390,7 +11390,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -11430,7 +11430,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -11470,7 +11470,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -11550,7 +11550,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -11710,7 +11710,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -11830,7 +11830,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -11870,7 +11870,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -11950,7 +11950,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -12030,7 +12030,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -12110,7 +12110,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -12190,7 +12190,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -12270,7 +12270,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
@@ -12390,7 +12390,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -12510,7 +12510,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -12550,7 +12550,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -12590,7 +12590,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -12670,7 +12670,7 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
@@ -12790,7 +12790,7 @@
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
@@ -12870,7 +12870,7 @@
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
@@ -12910,7 +12910,7 @@
       </c>
       <c r="G314" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H314" t="inlineStr">
@@ -12950,7 +12950,7 @@
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Metro</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
@@ -13070,7 +13070,7 @@
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
@@ -13150,7 +13150,7 @@
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
@@ -13190,7 +13190,7 @@
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
@@ -13270,7 +13270,7 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
@@ -13350,7 +13350,7 @@
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
@@ -13390,7 +13390,7 @@
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="G329" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H329" t="inlineStr">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
@@ -13590,7 +13590,7 @@
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="G332" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="H332" t="inlineStr">
